--- a/team_4_work_progress.xlsx
+++ b/team_4_work_progress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\snistala\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\snistala\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Day 1</t>
   </si>
@@ -81,6 +81,24 @@
   </si>
   <si>
     <t>Sushmitha S.H</t>
+  </si>
+  <si>
+    <t>(14 Aug 2018)</t>
+  </si>
+  <si>
+    <t>Create POJO classes</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module Implementation </t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Module Implementation</t>
   </si>
 </sst>
 </file>
@@ -401,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,12 +540,106 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
